--- a/testData/input_Corporate.xlsx
+++ b/testData/input_Corporate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SunitaGautam\Desktop\Automation\Admission_onlineForm\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C095A551-C0A9-4111-AA9B-B6A0CCF6229A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319CC327-A4FC-492C-9C42-0264E8A294C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,19 +157,19 @@
     <t>Rotiut</t>
   </si>
   <si>
-    <t>Shivam</t>
-  </si>
-  <si>
-    <t>shivam1@gmail.com</t>
-  </si>
-  <si>
-    <t>Mamta</t>
-  </si>
-  <si>
-    <t>TEAD</t>
-  </si>
-  <si>
-    <t>9888543213</t>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>rn@gmail.com</t>
+  </si>
+  <si>
+    <t>9898100022</t>
+  </si>
+  <si>
+    <t>prpenot</t>
+  </si>
+  <si>
+    <t>AirmA</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C324D49-EC86-430E-9E10-9CCA3F8D1CB4}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,6 +548,8 @@
     <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
@@ -626,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
@@ -653,13 +655,13 @@
         <v>44</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
